--- a/src/test/resources/ExcelSheets/logincredentials.xlsx
+++ b/src/test/resources/ExcelSheets/logincredentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Gujrati\Desktop\APIAutomation\RestAssuredAPI\src\test\resources\ExcelSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopi Kiran\git\restassuredhybrid\src\test\resources\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6243B1A-4CD3-42AE-A258-EBF8523C71B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F277F26-A54B-4520-AE69-4A41CAD8A5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>https://regression.academiaerp.com/</t>
+    <t>https://automation.academiaerp.com/#</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/ExcelSheets/logincredentials.xlsx
+++ b/src/test/resources/ExcelSheets/logincredentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Gujrati\Desktop\APIAutomation\RestAssuredAPI\src\test\resources\ExcelSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsh Gujrati\Documents\APIAutomation\restassuredhybrid\src\test\resources\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6243B1A-4CD3-42AE-A258-EBF8523C71B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3394D9B3-0887-4F94-9DBF-84B5576CE6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>https://regression.academiaerp.com/</t>
+    <t>https://automation.academiaerp.com/</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
